--- a/lipshades.xlsx
+++ b/lipshades.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nusu-my.sharepoint.com/personal/e0543650_u_nus_edu/Documents/Strudy/Y4S1/Capstone/capstone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nusu-my.sharepoint.com/personal/e0543650_u_nus_edu/Documents/Strudy/Y4S1/Capstone/capstone/templates/assets/lipshades/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{A7D3433E-34AE-9144-84B0-08C9044A20FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -462,7 +462,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40" defaultRowHeight="21" x14ac:dyDescent="0.35"/>

--- a/lipshades.xlsx
+++ b/lipshades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nusu-my.sharepoint.com/personal/e0543650_u_nus_edu/Documents/Strudy/Y4S1/Capstone/capstone/templates/assets/lipshades/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaseng/Documents/GitHub/capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7D3433E-34AE-9144-84B0-08C9044A20FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1801413-0BC8-894A-BE5A-A32FC4FED899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{894397F3-E24D-554A-81F9-D68CFB694252}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="21100" xr2:uid="{894397F3-E24D-554A-81F9-D68CFB694252}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
   <si>
     <t>product_id</t>
   </si>
@@ -44,30 +44,9 @@
     <t>name</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>A000001</t>
-  </si>
-  <si>
-    <t>A000002</t>
-  </si>
-  <si>
-    <t>A000003</t>
-  </si>
-  <si>
-    <t>A000004</t>
-  </si>
-  <si>
-    <t>A000005</t>
-  </si>
-  <si>
     <t>Intense Volume Matte Lipstick</t>
   </si>
   <si>
-    <t>L’Oreal Paris Color Riche Intense Volume Matte Lipstick is equipped with a slim bullet for precise application to fill your lips with intense color.</t>
-  </si>
-  <si>
     <t>hexcode</t>
   </si>
   <si>
@@ -77,9 +56,6 @@
     <t>129 Lead</t>
   </si>
   <si>
-    <t>Intense Volume Matte Lipstick 275 La Terra Attitude</t>
-  </si>
-  <si>
     <t>C25A4E</t>
   </si>
   <si>
@@ -87,13 +63,187 @@
   </si>
   <si>
     <t>275 La Terra Attitude</t>
+  </si>
+  <si>
+    <t>product_line</t>
+  </si>
+  <si>
+    <t>intense_volume_matte</t>
+  </si>
+  <si>
+    <t>A00001</t>
+  </si>
+  <si>
+    <t>A00002</t>
+  </si>
+  <si>
+    <t>A00003</t>
+  </si>
+  <si>
+    <t>A00004</t>
+  </si>
+  <si>
+    <t>A00005</t>
+  </si>
+  <si>
+    <t>A00006</t>
+  </si>
+  <si>
+    <t>A00007</t>
+  </si>
+  <si>
+    <t>A00008</t>
+  </si>
+  <si>
+    <t>A00009</t>
+  </si>
+  <si>
+    <t>A00010</t>
+  </si>
+  <si>
+    <t>A00011</t>
+  </si>
+  <si>
+    <t>A00012</t>
+  </si>
+  <si>
+    <t>A00013</t>
+  </si>
+  <si>
+    <t>A00014</t>
+  </si>
+  <si>
+    <t>Le Nude Admirable</t>
+  </si>
+  <si>
+    <t>Le Rose Activist</t>
+  </si>
+  <si>
+    <t>Le Mauve Indomptable</t>
+  </si>
+  <si>
+    <t>Le Wood Nonchalant</t>
+  </si>
+  <si>
+    <t>Le Coral Irreverent</t>
+  </si>
+  <si>
+    <t>Le Rosy Confident</t>
+  </si>
+  <si>
+    <t>Le Plum Dominant</t>
+  </si>
+  <si>
+    <t>Le Rouge Avant-Garde</t>
+  </si>
+  <si>
+    <t>Le Rosewood Ambition</t>
+  </si>
+  <si>
+    <t>Le Carmin Courage</t>
+  </si>
+  <si>
+    <t>Le Nude Independant</t>
+  </si>
+  <si>
+    <t>Le Rouge Determination</t>
+  </si>
+  <si>
+    <t>D10E63</t>
+  </si>
+  <si>
+    <t>B84074</t>
+  </si>
+  <si>
+    <t>AB5153</t>
+  </si>
+  <si>
+    <t>FA367E</t>
+  </si>
+  <si>
+    <t>E4579A</t>
+  </si>
+  <si>
+    <t>781C44</t>
+  </si>
+  <si>
+    <t>7B0720</t>
+  </si>
+  <si>
+    <t>B12D7B</t>
+  </si>
+  <si>
+    <t>B70276</t>
+  </si>
+  <si>
+    <t>B63865</t>
+  </si>
+  <si>
+    <t>A60F28</t>
+  </si>
+  <si>
+    <t>A00015</t>
+  </si>
+  <si>
+    <t>A00016</t>
+  </si>
+  <si>
+    <t>A00017</t>
+  </si>
+  <si>
+    <t>A00018</t>
+  </si>
+  <si>
+    <t>A00019</t>
+  </si>
+  <si>
+    <t>A00020</t>
+  </si>
+  <si>
+    <t>reds_of_worth</t>
+  </si>
+  <si>
+    <t>Reds of Worth Satin Lipstick with Saturated Colour</t>
+  </si>
+  <si>
+    <t>Properous Red</t>
+  </si>
+  <si>
+    <t>Lovely Red</t>
+  </si>
+  <si>
+    <t>Respected Red</t>
+  </si>
+  <si>
+    <t>Ambitious Red</t>
+  </si>
+  <si>
+    <t>Hopeful Red</t>
+  </si>
+  <si>
+    <t>Successful Red</t>
+  </si>
+  <si>
+    <t>A7002B</t>
+  </si>
+  <si>
+    <t>D30233</t>
+  </si>
+  <si>
+    <t>C50036</t>
+  </si>
+  <si>
+    <t>8D003A</t>
+  </si>
+  <si>
+    <t>CB0030</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -113,12 +263,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -144,7 +288,9 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,13 +605,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EEC25AA-D88A-064C-89E7-319327594E20}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="40" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="40" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40" style="1"/>
     <col min="2" max="3" width="59.5" style="1" customWidth="1"/>
@@ -473,70 +619,361 @@
     <col min="5" max="16384" width="40" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2">
+        <v>823959</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="2">
+        <v>780035</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
